--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Acinetobacter species" sheetId="1" r:id="rId1"/>
-    <sheet name="Pseudomonas aeruginosa" sheetId="11" r:id="rId2"/>
+    <sheet name="Acinetobacter_species" sheetId="1" r:id="rId1"/>
+    <sheet name="Pseudomonas_aeruginosa" sheetId="11" r:id="rId2"/>
     <sheet name="Beta-Hemolytic Streptococci" sheetId="2" r:id="rId3"/>
     <sheet name="Burkholderia cepacia" sheetId="3" r:id="rId4"/>
     <sheet name="ENTEROBACTERIACEAE_X_SAL_SHI" sheetId="4" r:id="rId5"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A2:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4779,11 +4779,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5684,10 +5687,13 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S579" sqref="S579"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">

--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -4,36 +4,36 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Acinetobacter_species" sheetId="1" r:id="rId1"/>
     <sheet name="Pseudomonas_aeruginosa" sheetId="11" r:id="rId2"/>
-    <sheet name="Beta-Hemolytic Streptococci" sheetId="2" r:id="rId3"/>
-    <sheet name="Burkholderia cepacia" sheetId="3" r:id="rId4"/>
-    <sheet name="ENTEROBACTERIACEAE_X_SAL_SHI" sheetId="4" r:id="rId5"/>
-    <sheet name="Enterococcus species" sheetId="5" r:id="rId6"/>
-    <sheet name="influenzae" sheetId="6" r:id="rId7"/>
-    <sheet name="Moraxella catarrhalis" sheetId="7" r:id="rId8"/>
-    <sheet name="Neisseria gonorrhoeae" sheetId="9" r:id="rId9"/>
-    <sheet name="Neisseria meningitidis" sheetId="8" r:id="rId10"/>
-    <sheet name="Other ENT" sheetId="10" r:id="rId11"/>
-    <sheet name="Salmonella &amp; Shigella species" sheetId="13" r:id="rId12"/>
-    <sheet name="Staphylococcus species" sheetId="12" r:id="rId13"/>
+    <sheet name="ENTEROBACTERIACEAE_X_SAL_SHI" sheetId="4" r:id="rId3"/>
+    <sheet name="Staphylococcus species" sheetId="12" r:id="rId4"/>
+    <sheet name="Enterococcus species" sheetId="5" r:id="rId5"/>
+    <sheet name="Beta-Hemolytic Streptococci" sheetId="2" r:id="rId6"/>
+    <sheet name="Burkholderia cepacia" sheetId="3" r:id="rId7"/>
+    <sheet name="influenzae" sheetId="6" r:id="rId8"/>
+    <sheet name="Moraxella catarrhalis" sheetId="7" r:id="rId9"/>
+    <sheet name="Neisseria gonorrhoeae" sheetId="9" r:id="rId10"/>
+    <sheet name="Neisseria meningitidis" sheetId="8" r:id="rId11"/>
+    <sheet name="Other ENT" sheetId="10" r:id="rId12"/>
+    <sheet name="Salmonella &amp; Shigella species" sheetId="13" r:id="rId13"/>
     <sheet name="Stenotrophomonas  maltophilia" sheetId="14" r:id="rId14"/>
     <sheet name="Streptococcus pneumoniae" sheetId="15" r:id="rId15"/>
     <sheet name="Streptococcus Viridans Group" sheetId="16" r:id="rId16"/>
     <sheet name="Vibrio cholerae" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ENTEROBACTERIACEAE_X_SAL_SHI!$C$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ENTEROBACTERIACEAE_X_SAL_SHI!$C$1:$C$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="169">
   <si>
     <t>Acinetobacter species</t>
   </si>
@@ -404,21 +404,12 @@
     <t>Rifampin</t>
   </si>
   <si>
-    <t>RIF</t>
-  </si>
-  <si>
     <t>Cefoxitin(S.aureus and S.lugdunensis)</t>
   </si>
   <si>
-    <t>Cefoxitin(CoagulaseNegative Staph)</t>
-  </si>
-  <si>
     <t>Oxacillin (S.aureus and S.lugdunensis)</t>
   </si>
   <si>
-    <t>Oxacillin (CoagulaseNegative Staph)</t>
-  </si>
-  <si>
     <t>Stenotrophomonas  maltophilia</t>
   </si>
   <si>
@@ -435,6 +426,120 @@
   </si>
   <si>
     <t>Vibrio cholerae</t>
+  </si>
+  <si>
+    <t>WHON5_CODE_MIC</t>
+  </si>
+  <si>
+    <t>AMK_NM</t>
+  </si>
+  <si>
+    <t>ATM_NM</t>
+  </si>
+  <si>
+    <t>FEP_NM</t>
+  </si>
+  <si>
+    <t>CAZ_NM</t>
+  </si>
+  <si>
+    <t>CIP_NM</t>
+  </si>
+  <si>
+    <t>COL_NM</t>
+  </si>
+  <si>
+    <t>IPM_NM</t>
+  </si>
+  <si>
+    <t>MEM_NM</t>
+  </si>
+  <si>
+    <t>GEN_NM</t>
+  </si>
+  <si>
+    <t>TZP_NM</t>
+  </si>
+  <si>
+    <t>R&gt;=</t>
+  </si>
+  <si>
+    <t>S&lt;=</t>
+  </si>
+  <si>
+    <t>SAM_NM</t>
+  </si>
+  <si>
+    <t>MNO_NM</t>
+  </si>
+  <si>
+    <t>SXT_NM</t>
+  </si>
+  <si>
+    <t>TCY_NM</t>
+  </si>
+  <si>
+    <t>CRO_NM</t>
+  </si>
+  <si>
+    <t>CTX_NM</t>
+  </si>
+  <si>
+    <t>CZO_NM</t>
+  </si>
+  <si>
+    <t>AMC_NM</t>
+  </si>
+  <si>
+    <t>AMP_NM</t>
+  </si>
+  <si>
+    <t>FOX_NM</t>
+  </si>
+  <si>
+    <t>CHL_NM</t>
+  </si>
+  <si>
+    <t>ETP_NM</t>
+  </si>
+  <si>
+    <t>AZM_NM</t>
+  </si>
+  <si>
+    <t>CLI_NM</t>
+  </si>
+  <si>
+    <t>RIF_ND5</t>
+  </si>
+  <si>
+    <t>OXA_ND1</t>
+  </si>
+  <si>
+    <t>DAP_NM</t>
+  </si>
+  <si>
+    <t>ERY_NM</t>
+  </si>
+  <si>
+    <t>LNZ_NM</t>
+  </si>
+  <si>
+    <t>OXA_NM</t>
+  </si>
+  <si>
+    <t>RIF_NM</t>
+  </si>
+  <si>
+    <t>VAN_NM</t>
+  </si>
+  <si>
+    <t>NIT_NM</t>
+  </si>
+  <si>
+    <t>FOS_NM</t>
+  </si>
+  <si>
+    <t>STH_NM</t>
   </si>
 </sst>
 </file>
@@ -480,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -518,13 +623,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,6 +679,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,9 +1003,11 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -914,8 +1035,17 @@
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +1073,17 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="12">
+        <v>64</v>
+      </c>
+      <c r="L2" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1111,17 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="12">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1149,17 @@
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="12">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1187,17 @@
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="12">
+        <v>16</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1225,17 @@
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,8 +1263,17 @@
       <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="12">
+        <v>8</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1301,17 @@
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="12">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,8 +1339,17 @@
       <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,8 +1377,17 @@
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="12">
+        <v>16</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,8 +1415,17 @@
       <c r="I11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="12">
+        <v>16</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1453,17 @@
       <c r="I12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="12">
+        <v>128</v>
+      </c>
+      <c r="L12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,8 +1491,17 @@
       <c r="I13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J13" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="12">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,6 +1528,15 @@
       </c>
       <c r="I14" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="12">
+        <v>16</v>
+      </c>
+      <c r="L14" s="12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1298,6 +1545,732 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>128</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>64</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <v>32</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9">
+        <v>64</v>
+      </c>
+      <c r="G24" s="9">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -1971,7 +2944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -2479,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -2890,459 +3863,6 @@
       <c r="I14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7">
-        <v>22</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>24</v>
-      </c>
-      <c r="G14" s="7">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>4</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,7 +3910,7 @@
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -3419,7 +3939,7 @@
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -3448,7 +3968,7 @@
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>48</v>
@@ -3477,7 +3997,7 @@
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -3506,7 +4026,7 @@
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -3579,7 +4099,7 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3608,7 +4128,7 @@
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -3637,7 +4157,7 @@
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
@@ -3664,7 +4184,7 @@
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -3689,7 +4209,7 @@
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
@@ -3718,7 +4238,7 @@
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>62</v>
@@ -3747,7 +4267,7 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>48</v>
@@ -3776,7 +4296,7 @@
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -3805,7 +4325,7 @@
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>120</v>
@@ -3832,10 +4352,10 @@
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>52</v>
@@ -3857,10 +4377,10 @@
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>52</v>
@@ -3926,7 +4446,7 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -3955,7 +4475,7 @@
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -3984,7 +4504,7 @@
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>60</v>
@@ -4013,7 +4533,7 @@
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>57</v>
@@ -4042,7 +4562,7 @@
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -4071,7 +4591,7 @@
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>53</v>
@@ -4098,7 +4618,7 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -4169,7 +4689,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -4198,7 +4718,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>35</v>
@@ -4227,7 +4747,7 @@
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -4256,7 +4776,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>99</v>
@@ -4285,7 +4805,7 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -4314,7 +4834,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
@@ -4343,7 +4863,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -4372,7 +4892,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -4401,7 +4921,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>60</v>
@@ -4430,7 +4950,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -4459,7 +4979,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -4488,7 +5008,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>65</v>
@@ -4517,7 +5037,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4546,7 +5066,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>74</v>
@@ -4575,7 +5095,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -4604,7 +5124,7 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -4633,7 +5153,7 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>67</v>
@@ -4662,7 +5182,7 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>89</v>
@@ -4689,7 +5209,7 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
@@ -4718,7 +5238,7 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
@@ -4747,7 +5267,7 @@
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>105</v>
@@ -4777,18 +5297,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J8" sqref="J8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4816,8 +5338,17 @@
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -4845,8 +5376,17 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="12">
+        <v>64</v>
+      </c>
+      <c r="L2" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -4874,8 +5414,17 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="12">
+        <v>16</v>
+      </c>
+      <c r="L3" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -4903,8 +5452,17 @@
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="12">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
@@ -4932,8 +5490,17 @@
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="12">
+        <v>16</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
@@ -4961,8 +5528,17 @@
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -4990,8 +5566,17 @@
       <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="12">
+        <v>8</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
@@ -5019,8 +5604,17 @@
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="12">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -5048,8 +5642,17 @@
       <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -5077,8 +5680,17 @@
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="12">
+        <v>16</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -5105,6 +5717,15 @@
       </c>
       <c r="I11" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="12">
+        <v>128</v>
+      </c>
+      <c r="L11" s="12">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5114,10 +5735,1669 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="12">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="12">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="12">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="12">
+        <v>8</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="12">
+        <v>16</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="12">
+        <v>32</v>
+      </c>
+      <c r="L8" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="12">
+        <v>32</v>
+      </c>
+      <c r="L10" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="12">
+        <v>32</v>
+      </c>
+      <c r="L11" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="12">
+        <v>32</v>
+      </c>
+      <c r="L12" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="12">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="12">
+        <v>128</v>
+      </c>
+      <c r="L15" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <v>22</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="12">
+        <v>8</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="12">
+        <v>16</v>
+      </c>
+      <c r="L18" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="12">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="12">
+        <v>128</v>
+      </c>
+      <c r="L20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="12">
+        <v>64</v>
+      </c>
+      <c r="L22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="12">
+        <v>8</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="12">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="12">
+        <v>8</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="12">
+        <v>8</v>
+      </c>
+      <c r="L6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="12">
+        <v>16</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="12">
+        <v>32</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="12">
+        <v>32</v>
+      </c>
+      <c r="L11" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="12"/>
+    <col min="12" max="12" width="8.85546875" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="12">
+        <v>32</v>
+      </c>
+      <c r="L2" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="12">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="12">
+        <v>32</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="12">
+        <v>128</v>
+      </c>
+      <c r="L7" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1025</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,7 +7744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -5682,936 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2">
-        <v>18</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2">
-        <v>19</v>
-      </c>
-      <c r="G19" s="2">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="2">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="7">
-        <v>6</v>
-      </c>
-      <c r="G8" s="7">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -7399,7 +8750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7524,730 +8875,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>128</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>32</v>
-      </c>
-      <c r="G18" s="2">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>64</v>
-      </c>
-      <c r="G20" s="2">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>64</v>
-      </c>
-      <c r="G21" s="2">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>32</v>
-      </c>
-      <c r="G22" s="2">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="9">
-        <v>32</v>
-      </c>
-      <c r="G23" s="9">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9">
-        <v>64</v>
-      </c>
-      <c r="G24" s="9">
-        <v>16</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="9">
-        <v>16</v>
-      </c>
-      <c r="G25" s="9">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Acinetobacter_species" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="172">
   <si>
     <t>Acinetobacter species</t>
   </si>
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t>STH_NM</t>
+  </si>
+  <si>
+    <t>Gentamicyn High</t>
+  </si>
+  <si>
+    <t>GEH_ND120</t>
+  </si>
+  <si>
+    <t>GEH_NM</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -634,13 +643,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -681,6 +701,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -990,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,10 +1316,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -5300,7 +5326,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,10 +5619,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -7088,14 +7114,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="8.85546875" style="12" customWidth="1"/>
@@ -7385,6 +7413,32 @@
       </c>
       <c r="L8" s="12">
         <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="12">
+        <v>513</v>
+      </c>
+      <c r="L9" s="12">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Acinetobacter_species" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="175">
   <si>
     <t>Acinetobacter species</t>
   </si>
@@ -549,6 +549,15 @@
   </si>
   <si>
     <t>GEH_NM</t>
+  </si>
+  <si>
+    <t>DOR_ND10</t>
+  </si>
+  <si>
+    <t>DOR_NM</t>
+  </si>
+  <si>
+    <t>Doripenem</t>
   </si>
 </sst>
 </file>
@@ -567,11 +576,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -660,7 +671,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -706,6 +717,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,10 +1178,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -1277,12 +1291,8 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1293,10 +1303,10 @@
         <v>137</v>
       </c>
       <c r="K7" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1354,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>5</v>
@@ -1489,7 +1499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,6 +1573,72 @@
       </c>
       <c r="L14" s="12">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17">
+        <v>19</v>
+      </c>
+      <c r="G15" s="17">
+        <v>23</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>18</v>
+      </c>
+      <c r="G16" s="17">
+        <v>22</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5323,10 +5399,511 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="12">
+        <v>64</v>
+      </c>
+      <c r="L2" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="12">
+        <v>16</v>
+      </c>
+      <c r="L3" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="12">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="12">
+        <v>16</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="12">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="12">
+        <v>16</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="12">
+        <v>128</v>
+      </c>
+      <c r="L11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="17">
+        <v>19</v>
+      </c>
+      <c r="G12" s="17">
+        <v>23</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="12">
+        <v>4</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="17">
+        <v>18</v>
+      </c>
+      <c r="G13" s="17">
+        <v>22</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="12">
+        <v>2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5374,444 +5951,6 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="12">
-        <v>64</v>
-      </c>
-      <c r="L2" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="12">
-        <v>16</v>
-      </c>
-      <c r="L3" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="12">
-        <v>16</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="12">
-        <v>16</v>
-      </c>
-      <c r="L5" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="12">
-        <v>8</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="12">
-        <v>4</v>
-      </c>
-      <c r="L8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="12">
-        <v>4</v>
-      </c>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="12">
-        <v>16</v>
-      </c>
-      <c r="L10" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="12">
-        <v>128</v>
-      </c>
-      <c r="L11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>73</v>
@@ -6616,11 +6755,9 @@
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
         <v>5</v>
       </c>
@@ -6628,10 +6765,10 @@
         <v>137</v>
       </c>
       <c r="K23" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -7116,14 +7253,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="8.85546875" style="12" customWidth="1"/>
@@ -7627,7 +7765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -7656,7 +7794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -7685,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -7712,7 +7850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>

--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Acinetobacter_species_v2" sheetId="20" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="178">
   <si>
     <t>Acinetobacter species</t>
   </si>
@@ -563,6 +563,15 @@
   </si>
   <si>
     <t>Doripenem</t>
+  </si>
+  <si>
+    <t>PEN_ND10</t>
+  </si>
+  <si>
+    <t>PEN_NM</t>
+  </si>
+  <si>
+    <t>LVX_NM</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1251,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,18 +1583,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1613,8 +1630,17 @@
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1642,8 +1668,17 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="12">
+        <v>8</v>
+      </c>
+      <c r="L2" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1669,8 +1704,14 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1696,8 +1737,14 @@
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1714,17 +1761,21 @@
         <v>5</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1752,8 +1803,17 @@
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1781,8 +1841,17 @@
       <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="12">
+        <v>16</v>
+      </c>
+      <c r="L7" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1810,8 +1879,17 @@
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1837,8 +1915,14 @@
       <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1864,8 +1948,14 @@
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1891,8 +1981,14 @@
       <c r="I11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1917,6 +2013,29 @@
       </c>
       <c r="I12" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="17">
+        <v>24</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Acinetobacter_species_v2" sheetId="20" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Vibrio cholerae" sheetId="17" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ENTEROBACTERIACEAE_X_SAL_SHI!$J$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ENTEROBACTERIACEAE_X_SAL_SHI!$A$1:$L$23</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1585,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -8253,12 +8253,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="12"/>
@@ -8307,22 +8308,22 @@
         <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -8331,13 +8332,13 @@
         <v>5</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="K2" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L2" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8345,10 +8346,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -8357,10 +8358,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
@@ -8369,13 +8370,13 @@
         <v>5</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K3" s="12">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="L3" s="12">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8383,23 +8384,23 @@
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>17</v>
       </c>
-      <c r="G4" s="2">
-        <v>21</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
@@ -8407,13 +8408,13 @@
         <v>5</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="K4" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L4" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8421,22 +8422,22 @@
         <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
@@ -8445,13 +8446,13 @@
         <v>5</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K5" s="12">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L5" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8459,31 +8460,27 @@
         <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K6" s="12">
         <v>8</v>
@@ -8497,22 +8494,22 @@
         <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -8521,13 +8518,13 @@
         <v>5</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K7" s="12">
         <v>16</v>
       </c>
       <c r="L7" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8535,19 +8532,19 @@
         <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <v>18</v>
@@ -8559,7 +8556,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K8" s="12">
         <v>32</v>
@@ -8573,22 +8570,22 @@
         <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2">
-        <v>19</v>
-      </c>
       <c r="G9" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>5</v>
@@ -8597,13 +8594,13 @@
         <v>5</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K9" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8611,37 +8608,31 @@
         <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K10" s="12">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L10" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8649,22 +8640,22 @@
         <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -8673,13 +8664,13 @@
         <v>5</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K11" s="12">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L11" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8687,22 +8678,22 @@
         <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
@@ -8711,13 +8702,13 @@
         <v>5</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K12" s="12">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L12" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8725,22 +8716,22 @@
         <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -8749,13 +8740,13 @@
         <v>5</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K13" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13" s="12">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8763,22 +8754,22 @@
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>5</v>
@@ -8787,13 +8778,13 @@
         <v>5</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K14" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8801,22 +8792,22 @@
         <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>5</v>
@@ -8825,13 +8816,13 @@
         <v>5</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="K15" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="L15" s="12">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8839,22 +8830,22 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -8863,13 +8854,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="12">
-        <v>2</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8877,33 +8862,37 @@
         <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K17" s="12">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L17" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8949,13 +8938,13 @@
         <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -8973,7 +8962,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K19" s="12">
         <v>4</v>
@@ -8987,22 +8976,22 @@
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>5</v>
@@ -9011,13 +9000,13 @@
         <v>5</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K20" s="12">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="L20" s="12">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -9025,22 +9014,22 @@
         <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>5</v>
@@ -9049,7 +9038,13 @@
         <v>5</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="K21" s="12">
+        <v>128</v>
+      </c>
+      <c r="L21" s="12">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -9057,37 +9052,37 @@
         <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="12">
+        <v>4</v>
+      </c>
+      <c r="L22" s="12">
         <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="12">
-        <v>64</v>
-      </c>
-      <c r="L22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -9095,31 +9090,37 @@
         <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K23" s="12">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="L23" s="12">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -9134,6 +9135,11 @@
       <c r="I24" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L23">
+    <sortState ref="A2:L23">
+      <sortCondition ref="C1:C23"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_summary_referred.xlsx
@@ -8254,7 +8254,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
